--- a/src/main/resources/Excel/SFDC_Data.xlsx
+++ b/src/main/resources/Excel/SFDC_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijeet.kulkarni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6996590-4EFD-4F0C-B837-F62713276508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48375C1-CEBF-4F3D-9DD7-F6578FAD635D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02DFFC31-3D5A-47F3-ADCB-BBCB8834AA7A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{02DFFC31-3D5A-47F3-ADCB-BBCB8834AA7A}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCampaign" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>expected return</t>
   </si>
   <si>
-    <t xml:space="preserve">New Campaign </t>
-  </si>
-  <si>
     <t>Trade Show</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Jade Global Softwares Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DreamForce 2020 </t>
   </si>
 </sst>
 </file>
@@ -457,13 +457,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE8DF3-CEFB-4E0E-94D8-296DFB1A18A8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
@@ -494,13 +496,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>10000</v>
@@ -524,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1F456D-39EA-453B-A7BF-4AE9FA627F22}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,42 +540,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
       <c r="E2">
         <v>9800989887</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
